--- a/data/xls/IKMS Transfert AFA Burkina Faso Mango.xlsx
+++ b/data/xls/IKMS Transfert AFA Burkina Faso Mango.xlsx
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="136">
-  <si>
-    <t xml:space="preserve">Here you define the studied value chain key characteristics, in order to match economic, social and ACV studies part</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="135">
   <si>
     <t xml:space="preserve">Property</t>
   </si>
@@ -449,7 +446,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0\ [$€-40C];[RED]\-#,##0\ [$€-40C]"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,12 +468,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -541,11 +532,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,8 +570,8 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -603,541 +594,541 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>203017.421602787</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>203017.421602787</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>102.089961734694</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>102.089961734694</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>68328.3721623229</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>563.937282229966</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>563.937282229966</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>32712.2074421663</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>65.5555273585399</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>32712.2074421663</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>65.5555273585399</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>40687.4630497694</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>81.5380038728472</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>40687.4630497694</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>81.5380038728472</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1160,19 +1151,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,13 +1171,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>69099998.3129883</v>
@@ -1197,13 +1188,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>539627816.160879</v>
@@ -1214,13 +1205,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>624841919.593269</v>
@@ -1231,13 +1222,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -1248,13 +1239,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1264869.89780426</v>
@@ -1265,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -1282,13 +1273,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1299,13 +1290,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1316,13 +1307,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1333,13 +1324,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -1350,13 +1341,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1367,13 +1358,13 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -1384,13 +1375,13 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -1401,13 +1392,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -1418,13 +1409,13 @@
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1435,13 +1426,13 @@
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1452,13 +1443,13 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1469,13 +1460,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1486,13 +1477,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1503,13 +1494,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>2097416702.52834</v>
@@ -1520,13 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>3329919736.33846</v>
@@ -1537,13 +1528,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>560250000</v>
@@ -1554,13 +1545,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1357241326.86523</v>
@@ -1571,13 +1562,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -1588,13 +1579,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -1605,13 +1596,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -1622,13 +1613,13 @@
         <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>6139246829.26829</v>
@@ -1639,13 +1630,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>7105609756.09756</v>
@@ -1656,13 +1647,13 @@
         <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -1673,13 +1664,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -1690,13 +1681,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>604625000</v>
@@ -1707,13 +1698,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>1687428312.64722</v>
@@ -1724,13 +1715,13 @@
         <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>3848006250</v>
@@ -1741,13 +1732,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>5360223231.88394</v>
@@ -1758,13 +1749,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -1775,13 +1766,13 @@
         <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -1792,13 +1783,13 @@
         <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -1809,13 +1800,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -1826,13 +1817,13 @@
         <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>47539566.9692307</v>
@@ -1843,13 +1834,13 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -1860,13 +1851,13 @@
         <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -1877,13 +1868,13 @@
         <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>0</v>
@@ -1894,13 +1885,13 @@
         <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0</v>
@@ -1911,13 +1902,13 @@
         <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -1928,13 +1919,13 @@
         <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>0</v>
@@ -1945,13 +1936,13 @@
         <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>0</v>
@@ -1962,13 +1953,13 @@
         <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -1979,13 +1970,13 @@
         <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0</v>
@@ -1996,13 +1987,13 @@
         <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>0</v>
@@ -2013,13 +2004,13 @@
         <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>0</v>
@@ -2030,13 +2021,13 @@
         <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -2047,13 +2038,13 @@
         <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -2064,13 +2055,13 @@
         <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>0</v>
@@ -2081,13 +2072,13 @@
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>0</v>
@@ -2098,13 +2089,13 @@
         <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>0</v>
@@ -2115,13 +2106,13 @@
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -2132,13 +2123,13 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
@@ -2149,13 +2140,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>0</v>
@@ -2166,13 +2157,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>0</v>
@@ -2183,13 +2174,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0</v>
@@ -2200,13 +2191,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -2217,13 +2208,13 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -2234,13 +2225,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -2251,13 +2242,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -2268,13 +2259,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0</v>
@@ -2285,13 +2276,13 @@
         <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>0</v>
@@ -2302,13 +2293,13 @@
         <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0</v>
@@ -2319,13 +2310,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0</v>
@@ -2336,13 +2327,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>0</v>
@@ -2353,13 +2344,13 @@
         <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>0</v>
@@ -2370,13 +2361,13 @@
         <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>0</v>
@@ -2387,13 +2378,13 @@
         <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0</v>
@@ -2404,13 +2395,13 @@
         <v>57</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1819425001.68701</v>
@@ -2421,13 +2412,13 @@
         <v>58</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>646230025.516739</v>
@@ -2438,13 +2429,13 @@
         <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>976481334.3285</v>
@@ -2455,13 +2446,13 @@
         <v>60</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>5894578471.89365</v>
@@ -2472,13 +2463,13 @@
         <v>61</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1264816287.22904</v>
@@ -2489,13 +2480,13 @@
         <v>62</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -2506,13 +2497,13 @@
         <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>0</v>
@@ -2523,13 +2514,13 @@
         <v>64</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0</v>
@@ -2540,13 +2531,13 @@
         <v>65</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>964389146.341464</v>
@@ -2557,13 +2548,13 @@
         <v>66</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>2842243902.43902</v>
@@ -2574,13 +2565,13 @@
         <v>67</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>0</v>
@@ -2591,13 +2582,13 @@
         <v>68</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>362775000</v>
@@ -2608,13 +2599,13 @@
         <v>69</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>482663500</v>
@@ -2625,13 +2616,13 @@
         <v>70</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>2560517540.77756</v>
@@ -2642,13 +2633,13 @@
         <v>71</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>1502554821.42857</v>
@@ -2659,13 +2650,13 @@
         <v>72</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>3125578917.9867</v>
@@ -2676,13 +2667,13 @@
         <v>73</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>0</v>
@@ -2693,13 +2684,13 @@
         <v>74</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>0</v>
@@ -2710,13 +2701,13 @@
         <v>57</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>2044000000</v>
@@ -2727,13 +2718,13 @@
         <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>3567291712.7829</v>
@@ -2744,13 +2735,13 @@
         <v>59</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>6948429230.76923</v>
@@ -2761,13 +2752,13 @@
         <v>60</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>6467904767.62536</v>
@@ -2778,13 +2769,13 @@
         <v>61</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>2768920097.35107</v>
@@ -2795,13 +2786,13 @@
         <v>62</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0</v>
@@ -2812,13 +2803,13 @@
         <v>63</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>0</v>
@@ -2829,13 +2820,13 @@
         <v>64</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>0</v>
@@ -2846,13 +2837,13 @@
         <v>65</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>7105609756.09756</v>
@@ -2863,13 +2854,13 @@
         <v>66</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>10658414634.1463</v>
@@ -2880,13 +2871,13 @@
         <v>67</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>0</v>
@@ -2897,13 +2888,13 @@
         <v>68</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>518250000</v>
@@ -2914,13 +2905,13 @@
         <v>69</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>1399275000</v>
@@ -2931,13 +2922,13 @@
         <v>70</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>4678352374.19977</v>
@@ -2948,13 +2939,13 @@
         <v>71</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>5359722991.07144</v>
@@ -2965,13 +2956,13 @@
         <v>72</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>8486228069.19645</v>
@@ -2982,13 +2973,13 @@
         <v>73</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>0</v>
@@ -2999,13 +2990,13 @@
         <v>74</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>0</v>
@@ -3016,13 +3007,13 @@
         <v>57</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>0</v>
@@ -3033,13 +3024,13 @@
         <v>58</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>0</v>
@@ -3050,13 +3041,13 @@
         <v>59</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>0</v>
@@ -3067,13 +3058,13 @@
         <v>60</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>0</v>
@@ -3084,13 +3075,13 @@
         <v>61</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3092,13 @@
         <v>62</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>0</v>
@@ -3118,13 +3109,13 @@
         <v>63</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>0</v>
@@ -3135,13 +3126,13 @@
         <v>64</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>0</v>
@@ -3152,13 +3143,13 @@
         <v>65</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>0</v>
@@ -3169,13 +3160,13 @@
         <v>66</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>0</v>
@@ -3186,13 +3177,13 @@
         <v>67</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>0</v>
@@ -3203,13 +3194,13 @@
         <v>68</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>0</v>
@@ -3220,13 +3211,13 @@
         <v>69</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>0</v>
@@ -3237,13 +3228,13 @@
         <v>70</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>0</v>
@@ -3254,13 +3245,13 @@
         <v>71</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>0</v>
@@ -3271,13 +3262,13 @@
         <v>72</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>0</v>
@@ -3288,13 +3279,13 @@
         <v>73</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>0</v>
@@ -3305,13 +3296,13 @@
         <v>74</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>0</v>
@@ -3322,13 +3313,13 @@
         <v>57</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>0</v>
@@ -3339,13 +3330,13 @@
         <v>58</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>38005000.257829</v>
@@ -3356,13 +3347,13 @@
         <v>59</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>18163230.525</v>
@@ -3373,13 +3364,13 @@
         <v>60</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>0</v>
@@ -3390,13 +3381,13 @@
         <v>61</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>14451708.6414337</v>
@@ -3407,13 +3398,13 @@
         <v>62</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>0</v>
@@ -3424,13 +3415,13 @@
         <v>63</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>0</v>
@@ -3441,13 +3432,13 @@
         <v>64</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>0</v>
@@ -3458,13 +3449,13 @@
         <v>65</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>0</v>
@@ -3475,13 +3466,13 @@
         <v>66</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>0</v>
@@ -3492,13 +3483,13 @@
         <v>67</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>0</v>
@@ -3509,13 +3500,13 @@
         <v>68</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>0</v>
@@ -3526,13 +3517,13 @@
         <v>69</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>38005000</v>
@@ -3543,13 +3534,13 @@
         <v>70</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>61486645.8249976</v>
@@ -3560,13 +3551,13 @@
         <v>71</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>9161919.64285715</v>
@@ -3577,13 +3568,13 @@
         <v>72</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>68604.4597379066</v>
@@ -3594,13 +3585,13 @@
         <v>73</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>0</v>
@@ -3611,13 +3602,13 @@
         <v>74</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>0</v>
@@ -3628,13 +3619,13 @@
         <v>57</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>0</v>
@@ -3645,13 +3636,13 @@
         <v>58</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>114722167.428434</v>
@@ -3662,13 +3653,13 @@
         <v>59</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>81679255.0961538</v>
@@ -3679,13 +3670,13 @@
         <v>60</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>13076295.7317073</v>
@@ -3696,13 +3687,13 @@
         <v>61</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>119574651.284065</v>
@@ -3713,13 +3704,13 @@
         <v>62</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>0</v>
@@ -3730,13 +3721,13 @@
         <v>63</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>0</v>
@@ -3747,13 +3738,13 @@
         <v>64</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>0</v>
@@ -3764,13 +3755,13 @@
         <v>65</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>1973780.48780488</v>
@@ -3781,13 +3772,13 @@
         <v>66</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>710560975.609756</v>
@@ -3798,13 +3789,13 @@
         <v>67</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>0</v>
@@ -3815,13 +3806,13 @@
         <v>68</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>0</v>
@@ -3832,13 +3823,13 @@
         <v>69</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>142691500</v>
@@ -3849,13 +3840,13 @@
         <v>70</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>0</v>
@@ -3866,13 +3857,13 @@
         <v>71</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>0</v>
@@ -3883,13 +3874,13 @@
         <v>72</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>357314.866071429</v>
@@ -3900,13 +3891,13 @@
         <v>73</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>0</v>
@@ -3917,13 +3908,13 @@
         <v>74</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>0</v>
@@ -3931,8 +3922,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3954,8 +3945,8 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3971,236 +3962,238 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="2" t="n">
+        <v>2016</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>2016</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>37675</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>37675</v>
+        <v>4150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4150</v>
+        <v>51825</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>51825</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4211,7 +4204,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4222,55 +4215,45 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4295,13 +4278,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4324,46 +4306,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4382,7 +4364,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.28"/>
@@ -4391,13 +4373,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,10 +4387,10 @@
         <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,10 +4398,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,10 +4409,10 @@
         <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,10 +4420,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,10 +4431,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,10 +4442,10 @@
         <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,10 +4453,10 @@
         <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,10 +4464,10 @@
         <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,10 +4475,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,10 +4486,10 @@
         <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,10 +4497,10 @@
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,10 +4508,10 @@
         <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,10 +4519,10 @@
         <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,10 +4530,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,10 +4541,10 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,10 +4552,10 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,10 +4563,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,16 +4574,16 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4624,22 +4606,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4662,34 +4644,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,16 +4679,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>10000</v>
@@ -4718,7 +4700,7 @@
         <v>100000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,16 +4708,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>37675</v>
@@ -4747,7 +4729,7 @@
         <v>20000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,16 +4737,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>4150</v>
@@ -4776,7 +4758,7 @@
         <v>70000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,16 +4766,16 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>33907.5</v>
@@ -4805,7 +4787,7 @@
         <v>50000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,16 +4795,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>3735</v>
@@ -4834,7 +4816,7 @@
         <v>150000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,16 +4824,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>7233.33358764648</v>
@@ -4863,7 +4845,7 @@
         <v>150000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,16 +4853,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2266.66673024495</v>
@@ -4892,7 +4874,7 @@
         <v>100000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,16 +4882,16 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>1930.11923076923</v>
@@ -4921,7 +4903,7 @@
         <v>3600000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,16 +4911,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>501.036585365854</v>
@@ -4950,7 +4932,7 @@
         <v>655956</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,16 +4940,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>7105.60975609756</v>
@@ -4979,7 +4961,7 @@
         <v>864000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,16 +4969,16 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>405.066680908203</v>
@@ -5008,7 +4990,7 @@
         <v>550000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,16 +4998,16 @@
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>3934.93347167969</v>
@@ -5037,7 +5019,7 @@
         <v>500000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,16 +5027,16 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>2893.33343505859</v>
@@ -5066,7 +5048,7 @@
         <v>200000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,16 +5056,16 @@
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>7105.60975609756</v>
@@ -5095,7 +5077,7 @@
         <v>1000000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,16 +5085,16 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>7105.60975609756</v>
@@ -5124,7 +5106,7 @@
         <v>1500000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,16 +5114,16 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>51825</v>
@@ -5153,7 +5135,7 @@
         <v>10000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,16 +5143,16 @@
         <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>46642.5</v>
@@ -5182,7 +5164,7 @@
         <v>30000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,16 +5172,16 @@
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>38480.0625</v>
@@ -5211,7 +5193,7 @@
         <v>100000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,16 +5201,16 @@
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>5535.64082799847</v>
@@ -5240,7 +5222,7 @@
         <v>150000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,16 +5230,16 @@
         <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>35731.4866071429</v>
@@ -5269,7 +5251,7 @@
         <v>150000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,16 +5259,16 @@
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>33944.9122767858</v>
@@ -5298,13 +5280,13 @@
         <v>250000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5323,7 +5305,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
@@ -5332,25 +5314,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,7 +5340,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3767.5</v>
@@ -5381,7 +5363,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>470.9375</v>
@@ -5404,7 +5386,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>52.98125</v>
@@ -5427,7 +5409,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -5450,7 +5432,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>8.00110619469027</v>
@@ -5473,7 +5455,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>19.7388888888889</v>
@@ -5496,7 +5478,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>284.24</v>
@@ -5519,7 +5501,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5182.5</v>
@@ -5542,7 +5524,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>647.8125</v>
@@ -5565,7 +5547,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>29.15125</v>
@@ -5588,7 +5570,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>916.190476190476</v>
@@ -5611,7 +5593,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>9925.27804070785</v>
@@ -5631,8 +5613,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5655,19 +5637,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5690,13 +5672,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1819425001.68701</v>
@@ -5715,7 +5697,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>646230025.516739</v>
@@ -5726,7 +5708,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>976481334.328498</v>
@@ -5737,7 +5719,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5894578471.89366</v>
@@ -5748,7 +5730,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1264816287.22904</v>
@@ -5759,7 +5741,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>964389146.341465</v>
@@ -5770,7 +5752,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2842243902.43898</v>
@@ -5781,7 +5763,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>362775000</v>
@@ -5792,7 +5774,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>482663500</v>
@@ -5803,7 +5785,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2560517540.77756</v>
@@ -5814,7 +5796,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1502554821.42858</v>
@@ -5825,7 +5807,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3125578917.9867</v>
@@ -5833,7 +5815,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
@@ -5841,7 +5823,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1234834603.96494</v>
@@ -5849,7 +5831,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1184635940.50399</v>
@@ -5857,7 +5839,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>47539566.9692307</v>
@@ -5865,7 +5847,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1188948859.88971</v>
@@ -5873,8 +5855,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
